--- a/avancement.xlsx
+++ b/avancement.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ETY01\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="5895"/>
   </bookViews>
   <sheets>
     <sheet name="Avancement" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Réel</t>
   </si>
@@ -108,6 +104,9 @@
   </si>
   <si>
     <t>J0</t>
+  </si>
+  <si>
+    <t>#13000</t>
   </si>
 </sst>
 </file>
@@ -295,16 +294,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.25</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.75</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -370,19 +369,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,11 +397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="193761256"/>
-        <c:axId val="193761640"/>
+        <c:axId val="210714176"/>
+        <c:axId val="210869552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193761256"/>
+        <c:axId val="210714176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,7 +444,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193761640"/>
+        <c:crossAx val="210869552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -453,7 +452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193761640"/>
+        <c:axId val="210869552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +503,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193761256"/>
+        <c:crossAx val="210714176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,7 +1176,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A4:F13" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A4:F14" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" name="US"/>
     <tableColumn id="2" name="Cplx"/>
@@ -1455,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,19 +1542,19 @@
       </c>
       <c r="K4" s="1">
         <f>B15</f>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L4" s="1">
         <f>0.75*B15</f>
-        <v>32.25</v>
+        <v>42</v>
       </c>
       <c r="M4" s="1">
         <f>0.5*B15</f>
-        <v>21.5</v>
+        <v>28</v>
       </c>
       <c r="N4" s="1">
         <f>0.25*B15</f>
-        <v>10.75</v>
+        <v>14</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -1587,22 +1586,22 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="L5" s="1">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5" s="1">
-        <f>43-(SUMIF($D4:$D13,"Done",$C4:$C13)+SUMIF($F4:$F13,"Done",$E4:$E13))</f>
-        <v>43</v>
+        <f>K5-(SUMIF($D4:$D14,"Done",$C4:$C14)+SUMIF($F4:$F14,"Done",$E4:$E14))</f>
+        <v>56</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:O5" si="0">43-(SUMIF($D4:$D13,"Done",$C4:$C13)+SUMIF($F4:$F13,"Done",$E4:$E13))</f>
-        <v>43</v>
+        <f t="shared" ref="N5:O5" si="0">L5-(SUMIF($D4:$D14,"Done",$C4:$C14)+SUMIF($F4:$F14,"Done",$E4:$E14))</f>
+        <v>56</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1747,18 +1746,32 @@
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15">
-        <f>SUM(B4:B13)</f>
-        <v>43</v>
+        <f>SUM(B4:B14)</f>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13 F4:F13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D14 F4:F14">
       <formula1>$I$4:$I$7</formula1>
     </dataValidation>
   </dataValidations>
